--- a/data/outputs/management_elsevier/75.xlsx
+++ b/data/outputs/management_elsevier/75.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BS39"/>
+  <dimension ref="A1:BU39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,6 +722,16 @@
           <t>eid</t>
         </is>
       </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>views</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>citations</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -943,6 +953,12 @@
           <t>2-s2.0-84935923144</t>
         </is>
       </c>
+      <c r="BT2" t="n">
+        <v>790</v>
+      </c>
+      <c r="BU2" t="n">
+        <v>14</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -1156,6 +1172,12 @@
           <t>2-s2.0-84933502543</t>
         </is>
       </c>
+      <c r="BT3" t="n">
+        <v>5742</v>
+      </c>
+      <c r="BU3" t="n">
+        <v>54</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -1369,6 +1391,12 @@
           <t>2-s2.0-84933521382</t>
         </is>
       </c>
+      <c r="BT4" t="n">
+        <v>1190</v>
+      </c>
+      <c r="BU4" t="n">
+        <v>18</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -1590,6 +1618,12 @@
           <t>2-s2.0-84937545454</t>
         </is>
       </c>
+      <c r="BT5" t="n">
+        <v>1813</v>
+      </c>
+      <c r="BU5" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -1815,6 +1849,12 @@
           <t>2-s2.0-84930645150</t>
         </is>
       </c>
+      <c r="BT6" t="n">
+        <v>3653</v>
+      </c>
+      <c r="BU6" t="n">
+        <v>50</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -2024,6 +2064,12 @@
           <t>2-s2.0-84929324932</t>
         </is>
       </c>
+      <c r="BT7" t="n">
+        <v>899</v>
+      </c>
+      <c r="BU7" t="n">
+        <v>5</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -2245,6 +2291,12 @@
           <t>2-s2.0-84937903460</t>
         </is>
       </c>
+      <c r="BT8" t="n">
+        <v>1869</v>
+      </c>
+      <c r="BU8" t="n">
+        <v>31</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -2466,6 +2518,12 @@
           <t>2-s2.0-84937966705</t>
         </is>
       </c>
+      <c r="BT9" t="n">
+        <v>3827</v>
+      </c>
+      <c r="BU9" t="n">
+        <v>40</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -2687,6 +2745,12 @@
           <t>2-s2.0-84937968138</t>
         </is>
       </c>
+      <c r="BT10" t="n">
+        <v>1509</v>
+      </c>
+      <c r="BU10" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -2900,6 +2964,12 @@
           <t>2-s2.0-84937969642</t>
         </is>
       </c>
+      <c r="BT11" t="n">
+        <v>1150</v>
+      </c>
+      <c r="BU11" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -3117,6 +3187,12 @@
           <t>2-s2.0-84929469516</t>
         </is>
       </c>
+      <c r="BT12" t="n">
+        <v>1812</v>
+      </c>
+      <c r="BU12" t="n">
+        <v>36</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -3330,6 +3406,12 @@
           <t>2-s2.0-84929158912</t>
         </is>
       </c>
+      <c r="BT13" t="n">
+        <v>824</v>
+      </c>
+      <c r="BU13" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -3543,6 +3625,12 @@
           <t>2-s2.0-84929324388</t>
         </is>
       </c>
+      <c r="BT14" t="n">
+        <v>2032</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>28</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -3764,6 +3852,12 @@
           <t>2-s2.0-84937973126</t>
         </is>
       </c>
+      <c r="BT15" t="n">
+        <v>3517</v>
+      </c>
+      <c r="BU15" t="n">
+        <v>70</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -3983,6 +4077,12 @@
           <t>2-s2.0-84937974831</t>
         </is>
       </c>
+      <c r="BT16" t="n">
+        <v>656</v>
+      </c>
+      <c r="BU16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -4192,6 +4292,12 @@
           <t>2-s2.0-84937848553</t>
         </is>
       </c>
+      <c r="BT17" t="n">
+        <v>3126</v>
+      </c>
+      <c r="BU17" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -4397,6 +4503,12 @@
           <t>2-s2.0-84937918983</t>
         </is>
       </c>
+      <c r="BT18" t="n">
+        <v>1775</v>
+      </c>
+      <c r="BU18" t="n">
+        <v>9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -4602,6 +4714,12 @@
           <t>2-s2.0-84937974527</t>
         </is>
       </c>
+      <c r="BT19" t="n">
+        <v>2117</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>11</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -4807,6 +4925,12 @@
           <t>2-s2.0-84937904263</t>
         </is>
       </c>
+      <c r="BT20" t="n">
+        <v>1011</v>
+      </c>
+      <c r="BU20" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -5024,6 +5148,12 @@
           <t>2-s2.0-84937972097</t>
         </is>
       </c>
+      <c r="BT21" t="n">
+        <v>3749</v>
+      </c>
+      <c r="BU21" t="n">
+        <v>35</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -5245,6 +5375,12 @@
           <t>2-s2.0-84937883446</t>
         </is>
       </c>
+      <c r="BT22" t="n">
+        <v>1535</v>
+      </c>
+      <c r="BU22" t="n">
+        <v>6</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -5458,6 +5594,12 @@
           <t>2-s2.0-84937966102</t>
         </is>
       </c>
+      <c r="BT23" t="n">
+        <v>451</v>
+      </c>
+      <c r="BU23" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -5679,6 +5821,12 @@
           <t>2-s2.0-84928227045</t>
         </is>
       </c>
+      <c r="BT24" t="n">
+        <v>1097</v>
+      </c>
+      <c r="BU24" t="n">
+        <v>10</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -5896,6 +6044,12 @@
           <t>2-s2.0-84928253499</t>
         </is>
       </c>
+      <c r="BT25" t="n">
+        <v>942</v>
+      </c>
+      <c r="BU25" t="n">
+        <v>7</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -6117,6 +6271,12 @@
           <t>2-s2.0-84921483558</t>
         </is>
       </c>
+      <c r="BT26" t="n">
+        <v>716</v>
+      </c>
+      <c r="BU26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -6338,6 +6498,12 @@
           <t>2-s2.0-84919927934</t>
         </is>
       </c>
+      <c r="BT27" t="n">
+        <v>1732</v>
+      </c>
+      <c r="BU27" t="n">
+        <v>21</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -6543,6 +6709,12 @@
           <t>2-s2.0-84919651323</t>
         </is>
       </c>
+      <c r="BT28" t="n">
+        <v>3632</v>
+      </c>
+      <c r="BU28" t="n">
+        <v>25</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -6758,6 +6930,12 @@
           <t>2-s2.0-84919787766</t>
         </is>
       </c>
+      <c r="BT29" t="n">
+        <v>3108</v>
+      </c>
+      <c r="BU29" t="n">
+        <v>30</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -6973,6 +7151,12 @@
           <t>2-s2.0-84916918686</t>
         </is>
       </c>
+      <c r="BT30" t="n">
+        <v>4195</v>
+      </c>
+      <c r="BU30" t="n">
+        <v>12</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -7194,6 +7378,12 @@
           <t>2-s2.0-84918784054</t>
         </is>
       </c>
+      <c r="BT31" t="n">
+        <v>2591</v>
+      </c>
+      <c r="BU31" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -7411,6 +7601,12 @@
           <t>2-s2.0-84918803272</t>
         </is>
       </c>
+      <c r="BT32" t="n">
+        <v>5735</v>
+      </c>
+      <c r="BU32" t="n">
+        <v>77</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -7624,6 +7820,12 @@
           <t>2-s2.0-84912080742</t>
         </is>
       </c>
+      <c r="BT33" t="n">
+        <v>3346</v>
+      </c>
+      <c r="BU33" t="n">
+        <v>39</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -7845,6 +8047,12 @@
           <t>2-s2.0-84912111210</t>
         </is>
       </c>
+      <c r="BT34" t="n">
+        <v>1665</v>
+      </c>
+      <c r="BU34" t="n">
+        <v>17</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -8050,6 +8258,12 @@
           <t>2-s2.0-84908316145</t>
         </is>
       </c>
+      <c r="BT35" t="n">
+        <v>3245</v>
+      </c>
+      <c r="BU35" t="n">
+        <v>41</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -8259,6 +8473,12 @@
           <t>2-s2.0-84913599394</t>
         </is>
       </c>
+      <c r="BT36" t="n">
+        <v>2826</v>
+      </c>
+      <c r="BU36" t="n">
+        <v>49</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -8480,6 +8700,12 @@
           <t>2-s2.0-84912094984</t>
         </is>
       </c>
+      <c r="BT37" t="n">
+        <v>4190</v>
+      </c>
+      <c r="BU37" t="n">
+        <v>69</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -8697,6 +8923,12 @@
           <t>2-s2.0-84913526457</t>
         </is>
       </c>
+      <c r="BT38" t="n">
+        <v>3930</v>
+      </c>
+      <c r="BU38" t="n">
+        <v>47</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -8902,6 +9134,12 @@
           <t>2-s2.0-84907796481</t>
         </is>
       </c>
+      <c r="BT39" t="n">
+        <v>500</v>
+      </c>
+      <c r="BU39" t="n">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
